--- a/documnet/doanTN.xlsx
+++ b/documnet/doanTN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhutDu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tailieu\DATN\SBike\documnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>User</t>
   </si>
@@ -557,6 +557,9 @@
     <t>error : boolean
 data : feedback
 message : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -716,6 +719,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,12 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E78"/>
+  <dimension ref="B3:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,11 +1037,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -1235,16 +1238,16 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
@@ -1339,11 +1342,11 @@
       <c r="D37" s="8"/>
     </row>
     <row r="41" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" t="s">
         <v>20</v>
       </c>
@@ -1378,11 +1381,11 @@
       <c r="D44" s="8"/>
     </row>
     <row r="47" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
@@ -1519,14 +1522,14 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="14" t="s">
+    <row r="65" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-    </row>
-    <row r="66" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>23</v>
       </c>
@@ -1546,7 +1549,7 @@
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
         <v>25</v>
       </c>
@@ -1555,7 +1558,7 @@
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>48</v>
       </c>
@@ -1565,8 +1568,11 @@
       <c r="D69" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>57</v>
       </c>
@@ -1575,7 +1581,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>58</v>
       </c>
@@ -1584,14 +1590,14 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="74" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="14" t="s">
+    <row r="74" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1617,7 @@
       </c>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
@@ -1620,7 +1626,7 @@
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>38</v>
       </c>
@@ -1647,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2057,10 +2063,10 @@
       <c r="D25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2077,10 +2083,10 @@
       <c r="D26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="15" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2097,10 +2103,10 @@
       <c r="D27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="15" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2129,19 +2135,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">

--- a/documnet/doanTN.xlsx
+++ b/documnet/doanTN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>driving_license_after_path</t>
   </si>
   <si>
-    <t>car_number_plate_path</t>
-  </si>
-  <si>
     <t>image_avatar_path</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>card_number_plate_path</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="8" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
     </row>
     <row r="10" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>4</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="19" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>4</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="20" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1222,24 +1222,24 @@
     </row>
     <row r="23" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,7 +1316,7 @@
     </row>
     <row r="35" spans="2:5" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>4</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="36" spans="2:5" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:5" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="51" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1488,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1"/>
     </row>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="60" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>19</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="61" spans="2:4" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="65" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
@@ -1569,24 +1569,24 @@
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D71" s="1"/>
     </row>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,22 +1712,22 @@
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,19 +1735,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,19 +1755,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,19 +1775,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,19 +1795,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,19 +1815,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,19 +1835,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,19 +1855,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,19 +1895,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -1915,19 +1915,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1935,19 +1935,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1955,19 +1955,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,19 +1975,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="F21" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,19 +1995,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,19 +2015,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,19 +2035,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="F24" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,19 +2055,19 @@
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,19 +2075,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -2095,19 +2095,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2136,14 +2136,14 @@
   <sheetData>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
       <c r="G2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2151,25 +2151,25 @@
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2198,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2207,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2224,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
